--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H2">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I2">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J2">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N2">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O2">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P2">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q2">
-        <v>900.66115144466</v>
+        <v>909.6235857982888</v>
       </c>
       <c r="R2">
-        <v>900.66115144466</v>
+        <v>3638.494343193155</v>
       </c>
       <c r="S2">
-        <v>0.02820220249655441</v>
+        <v>0.02652657646380252</v>
       </c>
       <c r="T2">
-        <v>0.02820220249655441</v>
+        <v>0.01693526997298598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H3">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I3">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J3">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N3">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P3">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q3">
-        <v>3119.279106116222</v>
+        <v>3410.74647141031</v>
       </c>
       <c r="R3">
-        <v>3119.279106116222</v>
+        <v>20464.47882846186</v>
       </c>
       <c r="S3">
-        <v>0.09767329350539462</v>
+        <v>0.09946468900441788</v>
       </c>
       <c r="T3">
-        <v>0.09767329350539462</v>
+        <v>0.09525134331040487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H4">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I4">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J4">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N4">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O4">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P4">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q4">
-        <v>1714.032460542138</v>
+        <v>1796.323252670898</v>
       </c>
       <c r="R4">
-        <v>1714.032460542138</v>
+        <v>10777.93951602539</v>
       </c>
       <c r="S4">
-        <v>0.05367111755663077</v>
+        <v>0.05238464224062852</v>
       </c>
       <c r="T4">
-        <v>0.05367111755663077</v>
+        <v>0.05016561748896855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H5">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I5">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J5">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N5">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O5">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P5">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q5">
-        <v>2749.462516798028</v>
+        <v>2811.017573128981</v>
       </c>
       <c r="R5">
-        <v>2749.462516798028</v>
+        <v>16866.10543877389</v>
       </c>
       <c r="S5">
-        <v>0.08609330882213423</v>
+        <v>0.08197530688395524</v>
       </c>
       <c r="T5">
-        <v>0.08609330882213423</v>
+        <v>0.07850281519135502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H6">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I6">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J6">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N6">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O6">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P6">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q6">
-        <v>562.961018228754</v>
+        <v>616.010955540012</v>
       </c>
       <c r="R6">
-        <v>562.961018228754</v>
+        <v>3696.065733240072</v>
       </c>
       <c r="S6">
-        <v>0.01762787326653037</v>
+        <v>0.01796420186305037</v>
       </c>
       <c r="T6">
-        <v>0.01762787326653037</v>
+        <v>0.01720323439485971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H7">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I7">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J7">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N7">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O7">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P7">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q7">
-        <v>5033.714637932942</v>
+        <v>5225.343119756469</v>
       </c>
       <c r="R7">
-        <v>5033.714637932942</v>
+        <v>20901.37247902587</v>
       </c>
       <c r="S7">
-        <v>0.1576195879006752</v>
+        <v>0.1523822226906961</v>
       </c>
       <c r="T7">
-        <v>0.1576195879006752</v>
+        <v>0.09728485256557982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H8">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J8">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N8">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O8">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P8">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q8">
-        <v>296.2271294801057</v>
+        <v>318.2918613579445</v>
       </c>
       <c r="R8">
-        <v>296.2271294801057</v>
+        <v>1909.751168147667</v>
       </c>
       <c r="S8">
-        <v>0.009275694279886237</v>
+        <v>0.009282073958875824</v>
       </c>
       <c r="T8">
-        <v>0.009275694279886237</v>
+        <v>0.008888883302597768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H9">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J9">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N9">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P9">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q9">
-        <v>1025.929778552077</v>
+        <v>1193.474817446044</v>
       </c>
       <c r="R9">
-        <v>1025.929778552077</v>
+        <v>10741.2733570144</v>
       </c>
       <c r="S9">
-        <v>0.03212471118084933</v>
+        <v>0.03480428772613825</v>
       </c>
       <c r="T9">
-        <v>0.03212471118084933</v>
+        <v>0.04999495587920538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H10">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J10">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N10">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O10">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P10">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q10">
-        <v>563.7446611388764</v>
+        <v>628.5622763303824</v>
       </c>
       <c r="R10">
-        <v>563.7446611388764</v>
+        <v>5657.060486973441</v>
       </c>
       <c r="S10">
-        <v>0.01765241130283937</v>
+        <v>0.01833022532139692</v>
       </c>
       <c r="T10">
-        <v>0.01765241130283937</v>
+        <v>0.02633062953076599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H11">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J11">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N11">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O11">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P11">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q11">
-        <v>904.2972350454161</v>
+        <v>983.6200705766689</v>
       </c>
       <c r="R11">
-        <v>904.2972350454161</v>
+        <v>8852.580635190019</v>
       </c>
       <c r="S11">
-        <v>0.02831605837435978</v>
+        <v>0.02868447280924927</v>
       </c>
       <c r="T11">
-        <v>0.02831605837435978</v>
+        <v>0.04120408852498025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H12">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I12">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J12">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N12">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O12">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P12">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q12">
-        <v>185.1576768595064</v>
+        <v>215.552099480406</v>
       </c>
       <c r="R12">
-        <v>185.1576768595064</v>
+        <v>1939.968895323654</v>
       </c>
       <c r="S12">
-        <v>0.00579780119105563</v>
+        <v>0.006285961949614736</v>
       </c>
       <c r="T12">
-        <v>0.00579780119105563</v>
+        <v>0.009029530867064303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H13">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I13">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J13">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N13">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O13">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P13">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q13">
-        <v>1655.586937912338</v>
+        <v>1828.431247593035</v>
       </c>
       <c r="R13">
-        <v>1655.586937912338</v>
+        <v>10970.58748555821</v>
       </c>
       <c r="S13">
-        <v>0.05184102589387978</v>
+        <v>0.05332098029924866</v>
       </c>
       <c r="T13">
-        <v>0.05184102589387978</v>
+        <v>0.05106229206533266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H14">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J14">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N14">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O14">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P14">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q14">
-        <v>0.3733278416364663</v>
+        <v>0.47781360056</v>
       </c>
       <c r="R14">
-        <v>0.3733278416364663</v>
+        <v>2.86688160336</v>
       </c>
       <c r="S14">
-        <v>1.168993174685645E-05</v>
+        <v>1.393407032160036E-05</v>
       </c>
       <c r="T14">
-        <v>1.168993174685645E-05</v>
+        <v>1.334382009534186E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H15">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J15">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N15">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P15">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q15">
-        <v>1.292954330582835</v>
+        <v>1.791621366844445</v>
       </c>
       <c r="R15">
-        <v>1.292954330582835</v>
+        <v>16.1245923016</v>
       </c>
       <c r="S15">
-        <v>4.048599164225698E-05</v>
+        <v>5.224752515632379E-05</v>
       </c>
       <c r="T15">
-        <v>4.048599164225698E-05</v>
+        <v>7.505146307092409E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H16">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J16">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N16">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O16">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P16">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q16">
-        <v>0.710473675879819</v>
+        <v>0.9435855605866666</v>
       </c>
       <c r="R16">
-        <v>0.710473675879819</v>
+        <v>8.49227004528</v>
       </c>
       <c r="S16">
-        <v>2.224690433632538E-05</v>
+        <v>2.751698055528725E-05</v>
       </c>
       <c r="T16">
-        <v>2.224690433632538E-05</v>
+        <v>3.952703297982941E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H17">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J17">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N17">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O17">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P17">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q17">
-        <v>1.139663796323565</v>
+        <v>1.476591470168889</v>
       </c>
       <c r="R17">
-        <v>1.139663796323565</v>
+        <v>13.28932323152</v>
       </c>
       <c r="S17">
-        <v>3.568603920614864E-05</v>
+        <v>4.306057709009253E-05</v>
       </c>
       <c r="T17">
-        <v>3.568603920614864E-05</v>
+        <v>6.185478262597865E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H18">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I18">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J18">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N18">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O18">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P18">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q18">
-        <v>0.2333497137338467</v>
+        <v>0.32358265248</v>
       </c>
       <c r="R18">
-        <v>0.2333497137338467</v>
+        <v>2.912243872320001</v>
       </c>
       <c r="S18">
-        <v>7.306827732803913E-06</v>
+        <v>9.436364785811721E-06</v>
       </c>
       <c r="T18">
-        <v>7.306827732803913E-06</v>
+        <v>1.355495750520536E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H19">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I19">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J19">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N19">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O19">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P19">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q19">
-        <v>2.086495923776788</v>
+        <v>2.74480570776</v>
       </c>
       <c r="R19">
-        <v>2.086495923776788</v>
+        <v>16.46883424656</v>
       </c>
       <c r="S19">
-        <v>6.53339832146673E-05</v>
+        <v>8.004442675184006E-05</v>
       </c>
       <c r="T19">
-        <v>6.53339832146673E-05</v>
+        <v>7.665372755838433E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H20">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I20">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J20">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N20">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O20">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P20">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q20">
-        <v>0.8169540237639854</v>
+        <v>1.015882225431</v>
       </c>
       <c r="R20">
-        <v>0.8169540237639854</v>
+        <v>6.095293352585999</v>
       </c>
       <c r="S20">
-        <v>2.558109980830288E-05</v>
+        <v>2.96253065024295E-05</v>
       </c>
       <c r="T20">
-        <v>2.558109980830288E-05</v>
+        <v>2.837037212486077E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H21">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I21">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J21">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N21">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O21">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P21">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q21">
-        <v>2.829374413337459</v>
+        <v>3.809176421823333</v>
       </c>
       <c r="R21">
-        <v>2.829374413337459</v>
+        <v>34.28258779641</v>
       </c>
       <c r="S21">
-        <v>8.859557228100977E-05</v>
+        <v>0.0001110837616737185</v>
       </c>
       <c r="T21">
-        <v>8.859557228100977E-05</v>
+        <v>0.0001595673443304777</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H22">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J22">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N22">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O22">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P22">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q22">
-        <v>1.554730892140653</v>
+        <v>2.006162650142</v>
       </c>
       <c r="R22">
-        <v>1.554730892140653</v>
+        <v>18.055463851278</v>
       </c>
       <c r="S22">
-        <v>4.868294294415728E-05</v>
+        <v>5.850400953611308E-05</v>
       </c>
       <c r="T22">
-        <v>4.868294294415728E-05</v>
+        <v>8.403865059758028E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H23">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J23">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N23">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O23">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P23">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q23">
-        <v>2.493928446545657</v>
+        <v>3.139389559044667</v>
       </c>
       <c r="R23">
-        <v>2.493928446545657</v>
+        <v>28.254506031402</v>
       </c>
       <c r="S23">
-        <v>7.809182726331855E-05</v>
+        <v>9.155133891408193E-05</v>
       </c>
       <c r="T23">
-        <v>7.809182726331855E-05</v>
+        <v>0.0001315098066567893</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H24">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J24">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N24">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O24">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P24">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q24">
-        <v>0.5106396210456622</v>
+        <v>0.687970925748</v>
       </c>
       <c r="R24">
-        <v>0.5106396210456622</v>
+        <v>6.191738331732001</v>
       </c>
       <c r="S24">
-        <v>1.598954498303176E-05</v>
+        <v>2.006270907180963E-05</v>
       </c>
       <c r="T24">
-        <v>1.598954498303176E-05</v>
+        <v>2.881927257799247E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H25">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J25">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N25">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O25">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P25">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q25">
-        <v>4.565882986451498</v>
+        <v>5.835747093651</v>
       </c>
       <c r="R25">
-        <v>4.565882986451498</v>
+        <v>35.014482561906</v>
       </c>
       <c r="S25">
-        <v>0.0001429704793561197</v>
+        <v>0.0001701829129323768</v>
       </c>
       <c r="T25">
-        <v>0.0001429704793561197</v>
+        <v>0.0001629739280094322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H26">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I26">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J26">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N26">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O26">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P26">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q26">
-        <v>556.0990122501834</v>
+        <v>575.9514523897284</v>
       </c>
       <c r="R26">
-        <v>556.0990122501834</v>
+        <v>3455.708714338371</v>
       </c>
       <c r="S26">
-        <v>0.01741300479815044</v>
+        <v>0.01679598075488138</v>
       </c>
       <c r="T26">
-        <v>0.01741300479815044</v>
+        <v>0.01608449938497369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H27">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I27">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J27">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N27">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O27">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P27">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q27">
-        <v>1925.949650500106</v>
+        <v>2159.601416027404</v>
       </c>
       <c r="R27">
-        <v>1925.949650500106</v>
+        <v>19436.41274424663</v>
       </c>
       <c r="S27">
-        <v>0.06030683343502639</v>
+        <v>0.06297861333851849</v>
       </c>
       <c r="T27">
-        <v>0.06030683343502639</v>
+        <v>0.09046623852693123</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H28">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I28">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J28">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N28">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O28">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P28">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q28">
-        <v>1058.302289094347</v>
+        <v>1137.38803884387</v>
       </c>
       <c r="R28">
-        <v>1058.302289094347</v>
+        <v>10236.49234959483</v>
       </c>
       <c r="S28">
-        <v>0.03313838440986618</v>
+        <v>0.03316867685981134</v>
       </c>
       <c r="T28">
-        <v>0.03313838440986618</v>
+        <v>0.04764546682369021</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H29">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I29">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J29">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N29">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O29">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P29">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q29">
-        <v>1697.612234476655</v>
+        <v>1779.867715848461</v>
       </c>
       <c r="R29">
-        <v>1697.612234476655</v>
+        <v>16018.80944263615</v>
       </c>
       <c r="S29">
-        <v>0.05315695466663031</v>
+        <v>0.05190476346155068</v>
       </c>
       <c r="T29">
-        <v>0.05315695466663031</v>
+        <v>0.07455909971781936</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H30">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I30">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J30">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N30">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O30">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P30">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q30">
-        <v>347.5913951325826</v>
+        <v>390.043101421878</v>
       </c>
       <c r="R30">
-        <v>347.5913951325826</v>
+        <v>3510.387912796902</v>
       </c>
       <c r="S30">
-        <v>0.01088405211645378</v>
+        <v>0.01137449414855047</v>
       </c>
       <c r="T30">
-        <v>0.01088405211645378</v>
+        <v>0.01633900218213595</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H31">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I31">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J31">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N31">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O31">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P31">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q31">
-        <v>3107.987652863469</v>
+        <v>3308.559722994898</v>
       </c>
       <c r="R31">
-        <v>3107.987652863469</v>
+        <v>19851.35833796939</v>
       </c>
       <c r="S31">
-        <v>0.09731972673879903</v>
+        <v>0.0964847040548743</v>
       </c>
       <c r="T31">
-        <v>0.09731972673879903</v>
+        <v>0.09239759116650376</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H32">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I32">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J32">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N32">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O32">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P32">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q32">
-        <v>288.6596324951396</v>
+        <v>306.6165856517333</v>
       </c>
       <c r="R32">
-        <v>288.6596324951396</v>
+        <v>1226.466342606933</v>
       </c>
       <c r="S32">
-        <v>0.009038734928392331</v>
+        <v>0.008941597855801836</v>
       </c>
       <c r="T32">
-        <v>0.009038734928392331</v>
+        <v>0.005708553227157369</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H33">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I33">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J33">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N33">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O33">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P33">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q33">
-        <v>999.7211037436435</v>
+        <v>1149.696922897768</v>
       </c>
       <c r="R33">
-        <v>999.7211037436435</v>
+        <v>6898.181537386606</v>
       </c>
       <c r="S33">
-        <v>0.03130404477048156</v>
+        <v>0.03352763034247993</v>
       </c>
       <c r="T33">
-        <v>0.03130404477048156</v>
+        <v>0.03210739268479546</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H34">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I34">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J34">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N34">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O34">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P34">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q34">
-        <v>549.3430901857146</v>
+        <v>605.5059598937265</v>
       </c>
       <c r="R34">
-        <v>549.3430901857146</v>
+        <v>3633.035759362359</v>
       </c>
       <c r="S34">
-        <v>0.01720145811179955</v>
+        <v>0.01765785363878072</v>
       </c>
       <c r="T34">
-        <v>0.01720145811179955</v>
+        <v>0.01690986314749024</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H35">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I35">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J35">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N35">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O35">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P35">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q35">
-        <v>881.1958175225523</v>
+        <v>947.5398658703635</v>
       </c>
       <c r="R35">
-        <v>881.1958175225523</v>
+        <v>5685.239195222181</v>
       </c>
       <c r="S35">
-        <v>0.02759268882090203</v>
+        <v>0.0276322965861234</v>
       </c>
       <c r="T35">
-        <v>0.02759268882090203</v>
+        <v>0.02646178653876717</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H36">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I36">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J36">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N36">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O36">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P36">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q36">
-        <v>180.4275896327328</v>
+        <v>207.645424833591</v>
       </c>
       <c r="R36">
-        <v>180.4275896327328</v>
+        <v>1245.872549001546</v>
       </c>
       <c r="S36">
-        <v>0.005649689020810625</v>
+        <v>0.006055386343542383</v>
       </c>
       <c r="T36">
-        <v>0.005649689020810625</v>
+        <v>0.005798878871076287</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H37">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I37">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J37">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N37">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O37">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P37">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q37">
-        <v>1613.292873952061</v>
+        <v>1761.362492412098</v>
       </c>
       <c r="R37">
-        <v>1613.292873952061</v>
+        <v>7045.449969648394</v>
       </c>
       <c r="S37">
-        <v>0.05051668126738319</v>
+        <v>0.05136511142071929</v>
       </c>
       <c r="T37">
-        <v>0.05051668126738319</v>
+        <v>0.0327928494764262</v>
       </c>
     </row>
   </sheetData>
